--- a/public/exports/products.xlsx
+++ b/public/exports/products.xlsx
@@ -872,9 +872,6 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1082,6 +1079,9 @@
       </c>
       <c r="G22" t="s">
         <v>22</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>55</v>

--- a/public/exports/products.xlsx
+++ b/public/exports/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,315 @@
   </si>
   <si>
     <t>created_at</t>
+  </si>
+  <si>
+    <t>id tenetur nisi nulla deleniti</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Fannie Tromp</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>2020-07-26 13:29:52</t>
+  </si>
+  <si>
+    <t>laudantium blanditiis magnam porro minus fugit</t>
+  </si>
+  <si>
+    <t>Miss Yvette Howell</t>
+  </si>
+  <si>
+    <t>sed animi optio repudiandae est qui</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Danika Denesik</t>
+  </si>
+  <si>
+    <t>temporibus sint ut accusamus doloremque eum</t>
+  </si>
+  <si>
+    <t>Lamar Maggio</t>
+  </si>
+  <si>
+    <t>asperiores quod eius animi</t>
+  </si>
+  <si>
+    <t>Burley Daugherty</t>
+  </si>
+  <si>
+    <t>tenetur nisi aut et facilis beatae</t>
+  </si>
+  <si>
+    <t>Rachel Stoltenberg</t>
+  </si>
+  <si>
+    <t>quam est incidunt odio quia qui</t>
+  </si>
+  <si>
+    <t>Jared Howell II</t>
+  </si>
+  <si>
+    <t>quia doloribus vero iste nihil</t>
+  </si>
+  <si>
+    <t>Blaze Dooley DDS</t>
+  </si>
+  <si>
+    <t>ut illo sunt veritatis nisi maxime eum</t>
+  </si>
+  <si>
+    <t>Out of stock</t>
+  </si>
+  <si>
+    <t>Ms. Rebeca Kuphal</t>
+  </si>
+  <si>
+    <t>eveniet quae et eum qui neque nihil</t>
+  </si>
+  <si>
+    <t>Jamel Schiller</t>
+  </si>
+  <si>
+    <t>nisi illo et quia</t>
+  </si>
+  <si>
+    <t>Kailee Considine</t>
+  </si>
+  <si>
+    <t>dolorum similique similique nemo officiis cumque</t>
+  </si>
+  <si>
+    <t>Nicholas Harris</t>
+  </si>
+  <si>
+    <t>quis id distinctio repudiandae et sit</t>
+  </si>
+  <si>
+    <t>Mrs. Susan Upton PhD</t>
+  </si>
+  <si>
+    <t>maxime velit rerum quo sequi voluptatem quibusdam</t>
+  </si>
+  <si>
+    <t>Gennaro Mohr</t>
+  </si>
+  <si>
+    <t>nobis voluptatem nobis recusandae quo quos eveniet</t>
+  </si>
+  <si>
+    <t>Lorenz Howe DVM</t>
+  </si>
+  <si>
+    <t>distinctio quasi aut qui quia quia ducimus</t>
+  </si>
+  <si>
+    <t>Merl Lueilwitz</t>
+  </si>
+  <si>
+    <t>et aliquam beatae minima qui fugiat necessitatibus</t>
+  </si>
+  <si>
+    <t>Coralie Padberg</t>
+  </si>
+  <si>
+    <t>omnis earum aut aut natus</t>
+  </si>
+  <si>
+    <t>Jacynthe Runolfsson</t>
+  </si>
+  <si>
+    <t>voluptatem nihil ratione recusandae et in</t>
+  </si>
+  <si>
+    <t>Monserrat Stanton V</t>
+  </si>
+  <si>
+    <t>commodi sed doloremque mollitia doloremque facere quo</t>
+  </si>
+  <si>
+    <t>Lilyan Ernser</t>
+  </si>
+  <si>
+    <t>autem est quia dolor numquam</t>
+  </si>
+  <si>
+    <t>Dr. Gail Harber</t>
+  </si>
+  <si>
+    <t>aspernatur quae autem et porro deleniti ullam</t>
+  </si>
+  <si>
+    <t>Miss Vallie Mills Jr.</t>
+  </si>
+  <si>
+    <t>quam nostrum sit consequatur quis architecto quia</t>
+  </si>
+  <si>
+    <t>Mr. Enid Wunsch IV</t>
+  </si>
+  <si>
+    <t>tempora rerum ducimus magnam perspiciatis sequi</t>
+  </si>
+  <si>
+    <t>Adrianna White</t>
+  </si>
+  <si>
+    <t>eum cumque nobis quo error magnam</t>
+  </si>
+  <si>
+    <t>Shakira Hand</t>
+  </si>
+  <si>
+    <t>doloribus eveniet quisquam quidem</t>
+  </si>
+  <si>
+    <t>Breanne Herzog</t>
+  </si>
+  <si>
+    <t>debitis voluptatum consequatur laudantium</t>
+  </si>
+  <si>
+    <t>Miss Kianna Mohr DVM</t>
+  </si>
+  <si>
+    <t>et accusantium possimus veritatis minima dolores rerum</t>
+  </si>
+  <si>
+    <t>Jaunita Jerde</t>
+  </si>
+  <si>
+    <t>rerum voluptatem beatae voluptas</t>
+  </si>
+  <si>
+    <t>Bridget Abshire I</t>
+  </si>
+  <si>
+    <t>accusamus quia eum ea</t>
+  </si>
+  <si>
+    <t>Kay Ryan</t>
+  </si>
+  <si>
+    <t>quasi exercitationem magnam omnis architecto sed vitae</t>
+  </si>
+  <si>
+    <t>Bernice Weissnat</t>
+  </si>
+  <si>
+    <t>nihil omnis blanditiis aut et nulla</t>
+  </si>
+  <si>
+    <t>Okey Ledner</t>
+  </si>
+  <si>
+    <t>voluptates sequi possimus recusandae</t>
+  </si>
+  <si>
+    <t>Lonny Roberts</t>
+  </si>
+  <si>
+    <t>vel nemo sequi minus labore</t>
+  </si>
+  <si>
+    <t>Freeda Herman Sr.</t>
+  </si>
+  <si>
+    <t>assumenda ea quia quo</t>
+  </si>
+  <si>
+    <t>Reta Hudson</t>
+  </si>
+  <si>
+    <t>aut aut fugiat aut eos iusto in</t>
+  </si>
+  <si>
+    <t>Dr. Loraine Moen</t>
+  </si>
+  <si>
+    <t>asperiores delectus praesentium qui et nihil quo</t>
+  </si>
+  <si>
+    <t>Baby Carter I</t>
+  </si>
+  <si>
+    <t>et veritatis iure laborum ut totam voluptatem</t>
+  </si>
+  <si>
+    <t>Vicente Bosco</t>
+  </si>
+  <si>
+    <t>consequuntur eaque expedita ut</t>
+  </si>
+  <si>
+    <t>Naomi Dickens DDS</t>
+  </si>
+  <si>
+    <t>voluptate dolorum aut qui sed qui</t>
+  </si>
+  <si>
+    <t>Anne Tromp I</t>
+  </si>
+  <si>
+    <t>aperiam saepe nihil velit earum voluptatem aut</t>
+  </si>
+  <si>
+    <t>Amina Schiller MD</t>
+  </si>
+  <si>
+    <t>ea labore aliquam commodi aut</t>
+  </si>
+  <si>
+    <t>Corine Emmerich</t>
+  </si>
+  <si>
+    <t>nesciunt pariatur laboriosam veniam est dolores nisi</t>
+  </si>
+  <si>
+    <t>Alice Champlin</t>
+  </si>
+  <si>
+    <t>nihil distinctio veniam possimus</t>
+  </si>
+  <si>
+    <t>Astrid Brakus</t>
+  </si>
+  <si>
+    <t>voluptatem ea quis unde in natus nihil</t>
+  </si>
+  <si>
+    <t>Frederik Gleason</t>
+  </si>
+  <si>
+    <t>ut sit architecto enim quos voluptatibus hic</t>
+  </si>
+  <si>
+    <t>Mr. Johnathon Aufderhar</t>
+  </si>
+  <si>
+    <t>quisquam sit fuga nisi debitis porro</t>
+  </si>
+  <si>
+    <t>Effie Prosacco</t>
+  </si>
+  <si>
+    <t>aut cum perferendis id ipsa aut</t>
+  </si>
+  <si>
+    <t>Cindy Hauck</t>
+  </si>
+  <si>
+    <t>dolore incidunt excepturi necessitatibus incidunt tempora ea</t>
+  </si>
+  <si>
+    <t>Adell Murray</t>
   </si>
 </sst>
 </file>
@@ -380,7 +689,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,6 +724,1283 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>106821</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>104463</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>108325</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>196725</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>185182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>104862</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>131250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>192292</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>169737</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>165411</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>191877</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>169406</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>159555</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>105349</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>151394</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>101132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>196630</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>133494</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20">
+        <v>152573</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>121228</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>110549</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23">
+        <v>143500</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>128766</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <v>132699</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>105349</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>144843</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <v>179203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>115824</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>165591</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>173795</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32">
+        <v>151253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33">
+        <v>164319</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34">
+        <v>124600</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>152241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36">
+        <v>127445</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37">
+        <v>109906</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38">
+        <v>164439</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39">
+        <v>153671</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40">
+        <v>177091</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41">
+        <v>172486</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42">
+        <v>167321</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43">
+        <v>137165</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44">
+        <v>156600</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45">
+        <v>174982</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46">
+        <v>145123</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47">
+        <v>117434</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48">
+        <v>191794</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49">
+        <v>150832</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50">
+        <v>176215</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
